--- a/Project Info/정보가져오는 인터페이스 클래스 정보.xlsx
+++ b/Project Info/정보가져오는 인터페이스 클래스 정보.xlsx
@@ -659,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/Project Info/정보가져오는 인터페이스 클래스 정보.xlsx
+++ b/Project Info/정보가져오는 인터페이스 클래스 정보.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,23 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>==&gt; ex) http://jstp.jejutour.go.kr/openapi/service/apiservice/JejuWifiVisitCountInfo.do  의 마지막 xxxx.do 부분을 따서 네이밍</t>
   </si>
   <si>
     <t>관련 메뉴 명 및 부가기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주특별자치도 제주시_문화축제현황  
-+ 제주시 축제/행사 정보
-날짜선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주특별자치도 제주시_공연행사정보 
-날짜선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,10 +63,6 @@
 ServiceKey 인증키요청변수
 start_date 검색시작일
 end_date 검색종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESPONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -91,6 +76,14 @@
 visit_date 방문일
 visit_count 방문횟수
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESPONE EXAMPLE ( 간략 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 다른거쓰는게 조을거같음 ( 기상확인할 좌표값을 지정하기 어려움 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -131,7 +124,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RESPONE EXAMPLE ( 간략 )</t>
+    <t>ArtstreetService [http://210.99.248.79/rest/ArtstreetService/getArtstreetList]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,7 +140,7 @@
 &lt;totalCount&gt;11&lt;/totalCount&gt;
 &lt;data&gt;
 &lt;list&gt;
-&lt;address&gt;제주 제주시 관덕로6길 11 송원빌딩 지하층&lt;/address&gt;
+&lt;address&gt;제주 제주시 관덕로6길 11 송원빌딩 지하 1층&lt;/address&gt;
 &lt;category&gt;COM005&lt;/category&gt;
 &lt;ceo&gt;오순희&lt;/ceo&gt;
 &lt;img_url&gt;
@@ -182,66 +175,324 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;rfcOpenApi&gt;
+    <t>startPage 시작 페이지
+pageSize 페이지 사이즈
+authApiKey 요청키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resultCode 결과코드
+resultMsg 결과메시지
+pageIndex 페이지 인덱스
+pageSize 페이지 사이즈
+startPage 시작 페이지
+totalCount 전체 게시물 수
+name 업체명
+category 분류
+ceo 대표자
+address 주소
+telephone 연락처
+introduce 소개
+img_url 대표이미지URL
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultureEvent [http://data.seogwipo.go.kr/openapi/service/rest/cultureEvent]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 문화예술행사정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESPONSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateFrom 조회시작일
+dateTo 조회종료일
+iSubject 행사명
+iLocation 행사장소
+numOfRows 한 페이지 결과 수
+pageNo 페이지 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iAddJibun 소재지번주소
+iAddRoad 소재지도로명주소
+iAlert 유의사항
+iAuspice 주최기관
+iBookingurl 예매정보
+iChair 객석수
+iClass 입장연령
+iContents 행사내용
+iCtime 데이터기준일자
+iDis 할인정보
+iEdate 행사종료일자
+iHelp 연락처
+iHomepage 홈페이지주소
+iLocation 행사장소
+iMapX 위도
+iMapY 경도
+iParking 주차장보유여부
+iPart 주관기관
+iPayText 요금정보
+iPeriodText 행사시간
+iPrice 관람요금
+iSdate 행사시작일자
+iSubject 행사명
+iSupport 후원기관
+Mtype 공개데이터 구분
+Padddate 데이터 등록일자
+pSn 행사 일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;response&gt;
+&lt;header&gt;
+&lt;resultCode&gt;00&lt;/resultCode&gt;
+&lt;resultMsg&gt;NORMAL SERVICE.&lt;/resultMsg&gt;
+&lt;/header&gt;
+&lt;body&gt;
+&lt;items&gt;
+&lt;item&gt;
+&lt;IAddJibun&gt;서귀포시 서홍동 615번지&lt;/IAddJibun&gt;
+&lt;IAddRoad&gt;서귀포시 태평로 270&lt;/IAddRoad&gt;
+&lt;IAuspice&gt;서귀포예술의전당&lt;/IAuspice&gt;
+&lt;IChair&gt;0&lt;/IChair&gt;
+&lt;IContents&gt;
+&lt;p&gt;지역작가 창작지원을 위한 서귀포 전시 우수 작품전 - 서귀포서 혼디 살게&lt;/p&gt;
+ &lt;p&gt;『강명순展 &amp;quot;천혜의 제주비경-연화연가&amp;quot;』&lt;/p&gt;
+&lt;/IContents&gt;
+&lt;ICtime&gt;2016-09-23&lt;/ICtime&gt;
+&lt;IEdate&gt;2016-08-04&lt;/IEdate&gt;
+&lt;IHelp&gt;064-760-3341&lt;/IHelp&gt;
+&lt;ILocation&gt;전시실&lt;/ILocation&gt;
+&lt;IParking&gt;Y&lt;/IParking&gt;
+&lt;IPart&gt;서귀포예술의전당&lt;/IPart&gt;
+&lt;IPayText&gt;무료&lt;/IPayText&gt;
+&lt;IPeriodText&gt;2016. 7.23(토) ~ 8. 4(목)&lt;/IPeriodText&gt;
+&lt;ISdate&gt;2016-07-23&lt;/ISdate&gt;
+&lt;ISubject&gt;서귀포예술의전당 기획 전시『강명순展 "천혜의 제주비경-연화연가"』&lt;/ISubject&gt;
+&lt;MType&gt;0001&lt;/MType&gt;
+&lt;PAdddate&gt;2016-05-24T00:00:00+09:00&lt;/PAdddate&gt;
+&lt;PSn&gt;0000000418&lt;/PSn&gt;
+&lt;/item&gt;
+&lt;item&gt;
+&lt;IAddJibun&gt;서귀포시 서홍동 615번지&lt;/IAddJibun&gt;
+&lt;IAddRoad&gt;서귀포시 태평로 270&lt;/IAddRoad&gt;
+&lt;IAuspice&gt;서귀포예술의전당&lt;/IAuspice&gt;
+&lt;IChair&gt;0&lt;/IChair&gt;
+&lt;IContents&gt;&lt;p&gt;서귀포예술의전당 기획 전시 오민수 개인전 &amp;quot;산수유람-제주&amp;quot;&lt;/p&gt;&lt;/IContents&gt;
+&lt;ICtime&gt;2016-09-23&lt;/ICtime&gt;
+&lt;IEdate&gt;2016-09-16&lt;/IEdate&gt;
+&lt;IHelp&gt;064-760-3341&lt;/IHelp&gt;
+&lt;ILocation&gt;전시실&lt;/ILocation&gt;
+&lt;IParking&gt;Y&lt;/IParking&gt;
+&lt;IPart&gt;서귀포예술의전당&lt;/IPart&gt;
+&lt;IPayText&gt;무료&lt;/IPayText&gt;
+&lt;IPeriodText&gt;2016. 9. 5(월) ~ 9.16(금)&lt;/IPeriodText&gt;
+&lt;ISdate&gt;2016-09-05&lt;/ISdate&gt;
+&lt;ISubject&gt;오민수 개인전 "산수유람-제주"&lt;/ISubject&gt;
+&lt;MType&gt;0001&lt;/MType&gt;
+&lt;PAdddate&gt;2016-05-24T00:00:00+09:00&lt;/PAdddate&gt;
+&lt;PSn&gt;0000000420&lt;/PSn&gt;
+&lt;/item&gt;
+&lt;item&gt;
+&lt;IAddJibun&gt;서귀포시 서홍동 615번지&lt;/IAddJibun&gt;
+&lt;IAddRoad&gt;서귀포시 태평로 270&lt;/IAddRoad&gt;
+&lt;IAuspice&gt;한국서가협회제주도지회&lt;/IAuspice&gt;
+&lt;IChair&gt;0&lt;/IChair&gt;
+&lt;IContents&gt;
+&lt;p&gt;2016 한중서예 대표작가 제주특별전 &amp;quot;제주 - 절강성, 최부의 오래된 인연&amp;quot;&lt;/p&gt;
+&lt;/IContents&gt;
+&lt;ICtime&gt;2016-09-23&lt;/ICtime&gt;
+&lt;IEdate&gt;2016-12-12&lt;/IEdate&gt;
+&lt;IHelp&gt;010-3099-2282&lt;/IHelp&gt;
+&lt;ILocation&gt;전시실&lt;/ILocation&gt;
+&lt;IParking&gt;Y&lt;/IParking&gt;
+&lt;IPart&gt;한국서가협회제주도지회&lt;/IPart&gt;
+&lt;IPayText&gt;무료&lt;/IPayText&gt;
+&lt;IPeriodText&gt;2016.12. 3(토) ~ 12.12(월)&lt;/IPeriodText&gt;
+&lt;ISdate&gt;2016-12-03&lt;/ISdate&gt;
+&lt;ISubject&gt;2016 한중서예 대표작가 제주특별전 "제주 - 절강성, 최부의 오래된 인연"&lt;/ISubject&gt;
+&lt;MType&gt;0001&lt;/MType&gt;
+&lt;PAdddate&gt;2016-05-25T00:00:00+09:00&lt;/PAdddate&gt;
+&lt;PSn&gt;0000000425&lt;/PSn&gt;
+&lt;/item&gt;
+&lt;item&gt;
+&lt;IAddJibun&gt;서귀포시 서홍동 615번지&lt;/IAddJibun&gt;
+&lt;IAddRoad&gt;서귀포시 태평로 270&lt;/IAddRoad&gt;
+&lt;IAuspice&gt;갤럭시 전시&lt;/IAuspice&gt;
+&lt;IChair&gt;0&lt;/IChair&gt;
+&lt;IContents&gt;&lt;p&gt;제주바람 展&lt;/p&gt;
+ &lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;/IContents&gt;
+&lt;ICtime&gt;2016-09-23&lt;/ICtime&gt;
+&lt;IEdate&gt;2016-09-29&lt;/IEdate&gt;
+&lt;IHelp&gt;02-720-0342&lt;/IHelp&gt;
+&lt;ILocation&gt;전시실&lt;/ILocation&gt;
+&lt;IParking&gt;Y&lt;/IParking&gt;
+&lt;IPart&gt;갤럭시 전시&lt;/IPart&gt;
+&lt;IPayText&gt;무료&lt;/IPayText&gt;
+&lt;IPeriodText&gt;2016. 9.25(일) ~ 9.29(목)&lt;/IPeriodText&gt;
+&lt;ISdate&gt;2016-09-25&lt;/ISdate&gt;
+&lt;ISubject&gt;제주바람 展&lt;/ISubject&gt;
+&lt;MType&gt;0001&lt;/MType&gt;
+&lt;PAdddate&gt;2016-07-26T00:00:00+09:00&lt;/PAdddate&gt;
+&lt;PSn&gt;0000000495&lt;/PSn&gt;
+&lt;/item&gt;
+&lt;/items&gt;
+&lt;numOfRows&gt;10&lt;/numOfRows&gt;
+&lt;pageNo&gt;1&lt;/pageNo&gt;
+&lt;totalCount&gt;4&lt;/totalCount&gt;
+&lt;/body&gt;
+&lt;/response&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주 문화예술의 거리정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주 아트센터 공연정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artcenterShowInfoService[http://210.99.248.79/rest/ArtcenterShowInfoService/getArtcenterShowList]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resultCode 결과코드
+resultMsg 결과메시지
+pageIndex 페이지 인덱스
+pageSize 페이지 사이즈
+startPage 시작 페이지
+totalCount 전체 게시물 수
+p_SN 일련번호
+p_NM 공연명
+p_IMG 이미지
+p_YN 공연확정여부
+p_START_YMD 공연시작기간
+p_END_YMD 공연종료기간
+p_RNUTIME 관람시간
+p_VIEW_CD 관람등급
+p_PLAY_YN 공연여부
+p_INTRO 공연소개
+p_REG_DT 등록일자
+p_ORCHESTRA_YN 오케스트라여부
+p_ART_YN 대관여부
+p_FREE_YN 무료공연여부
+p_RESE_YN 인터넷예매여부
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;rfcOpenApi&gt;
 &lt;header&gt;
 &lt;resultCode&gt;00&lt;/resultCode&gt;
 &lt;resultMsg&gt;success&lt;/resultMsg&gt;
 &lt;/header&gt;
 &lt;body&gt;
 &lt;pageIndex&gt;0&lt;/pageIndex&gt;
-&lt;pageSize&gt;3&lt;/pageSize&gt;
+&lt;pageSize&gt;10&lt;/pageSize&gt;
 &lt;startPage&gt;1&lt;/startPage&gt;
-&lt;totalCount&gt;529&lt;/totalCount&gt;
+&lt;totalCount&gt;760&lt;/totalCount&gt;
 &lt;data&gt;
 &lt;list&gt;
 &lt;p_ART_YN&gt;0&lt;/p_ART_YN&gt;
-&lt;p_END_YMD&gt;20170627&lt;/p_END_YMD&gt;
-&lt;p_FREE_YN&gt;1&lt;/p_FREE_YN&gt;
-&lt;p_IMG&gt;http://arts.jejusi.go.kr/storage/DATA/00201472_0&lt;/p_IMG&gt;
-&lt;p_INTRO&gt;1&lt;/p_INTRO&gt;
-&lt;p_NM&gt;바흐 모테트 전곡 연주회&lt;/p_NM&gt;
+&lt;p_END_YMD&gt;20160630&lt;/p_END_YMD&gt;
+&lt;p_FREE_YN&gt;0&lt;/p_FREE_YN&gt;
+&lt;p_IMG&gt;151123_025337_0&lt;/p_IMG&gt;
+&lt;p_INTRO&gt;&lt;/p_INTRO&gt;
+&lt;p_NM&gt;제3회 제주평화 음악회&lt;/p_NM&gt;
 &lt;p_ORCHESTRA_YN&gt;0&lt;/p_ORCHESTRA_YN&gt;
-&lt;p_PLAY_YN&gt;1&lt;/p_PLAY_YN&gt;
-&lt;p_REG_DT&gt;2017-05-22 11:12:47.0&lt;/p_REG_DT&gt;
+&lt;p_PLAY_YN&gt;0&lt;/p_PLAY_YN&gt;
+&lt;p_REG_DT&gt;2015-12-01 15:30:04.0&lt;/p_REG_DT&gt;
 &lt;p_RESE_YN&gt;0&lt;/p_RESE_YN&gt;
-&lt;p_RNUTIME&gt;90&lt;/p_RNUTIME&gt;
-&lt;p_SN&gt;201472&lt;/p_SN&gt;
-&lt;p_START_YMD&gt;20170627&lt;/p_START_YMD&gt;
-&lt;p_VIEW_CD&gt;01&lt;/p_VIEW_CD&gt;
-&lt;p_YN&gt;1&lt;/p_YN&gt;
+&lt;p_RNUTIME&gt;60&lt;/p_RNUTIME&gt;
+&lt;p_SN&gt;201278&lt;/p_SN&gt;
+&lt;p_START_YMD&gt;20160629&lt;/p_START_YMD&gt;
+&lt;p_VIEW_CD&gt;&lt;/p_VIEW_CD&gt;
+&lt;p_YN&gt;0&lt;/p_YN&gt;
 &lt;/list&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 축제/행사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FestivalInquiryService [http://210.99.248.79/rest/FestivalInquiryService/getFestivalList]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resultCode 결과코드
+resultMsg 결과메시지
+pageIndex 페이지 인덱스
+pageSize 페이지 사이즈
+startPage 시작 페이지
+totalCount 전체 게시물 수
+edate 축제/행사 종료일
+host 축제/행사 주최
+host1 축제/행사 주관
+info 축제/행사 내용
+location 축제/행사 장소
+sdate 축제/행사 시작일
+seq 고유번호
+title 축제/행사 명칭
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;rfcOpenApi&gt;
+&lt;header&gt;
+&lt;resultCode&gt;00&lt;/resultCode&gt;
+&lt;resultMsg&gt;success&lt;/resultMsg&gt;
+&lt;/header&gt;
+&lt;body&gt;
+&lt;pageIndex&gt;0&lt;/pageIndex&gt;
+&lt;pageSize&gt;10&lt;/pageSize&gt;
+&lt;startPage&gt;1&lt;/startPage&gt;
+&lt;totalCount&gt;196&lt;/totalCount&gt;
+&lt;data&gt;
 &lt;list&gt;
-&lt;p_ART_YN&gt;1&lt;/p_ART_YN&gt;
-&lt;p_END_YMD&gt;20170611&lt;/p_END_YMD&gt;
-&lt;p_FREE_YN&gt;1&lt;/p_FREE_YN&gt;
-&lt;p_IMG&gt;http://arts.jejusi.go.kr/storage/DATA/00201473_0&lt;/p_IMG&gt;
-&lt;p_INTRO&gt;1&lt;/p_INTRO&gt;
-&lt;p_NM&gt;해비치축제 특별공연 지적장애인과 함께하는 백건우의 음악여행&lt;/p_NM&gt;
-&lt;p_ORCHESTRA_YN&gt;0&lt;/p_ORCHESTRA_YN&gt;
-&lt;p_PLAY_YN&gt;1&lt;/p_PLAY_YN&gt;
-&lt;p_REG_DT&gt;2017-05-30 09:05:12.0&lt;/p_REG_DT&gt;
-&lt;p_RESE_YN&gt;0&lt;/p_RESE_YN&gt;
-&lt;p_RNUTIME&gt;90&lt;/p_RNUTIME&gt;
-&lt;p_SN&gt;201473&lt;/p_SN&gt;
-&lt;p_START_YMD&gt;20170611&lt;/p_START_YMD&gt;
-&lt;p_VIEW_CD&gt;1&lt;/p_VIEW_CD&gt;
-&lt;p_YN&gt;1&lt;/p_YN&gt;
+&lt;edate&gt;2014-11-15&lt;/edate&gt;
+&lt;host&gt;제주시 청소년시설협회&lt;/host&gt;
+&lt;host1&gt;제주시&lt;/host1&gt;
+&lt;info&gt;
+우리시에서는 아동, 청소년, 가족 등 지역의 청소년과 시민들이 한자리에 모여, 함께 참여하고 화합할 수 있는 자리를 마련하기 위하여 다음과 같이『제4회 제주시 청소년, 통(通)큰 Festival!』개최하고자 하오니 시민 여러분의 많은 참여 부탁드립니다.
+ 가. 행 사 명 : 제4회 제주시 청소년, 통(通)큰 Festival!
+ 나. 일 시 : 2014. 11. 15(토) 13:00~17:00
+ 다. 장 소 : 제주해변공연장(탑동)
+ 라. 대 상 : 지역사회 청소년 등 1,500여명
+ 마. 주 최 : 제주시(여성가족과)
+ 바. 주 관 : 제주시 청소년시설협회
+ 사. 참여시설 
+ - 공공청소년수련시설(10), 청소년방과후아카데미(4), 청소년성문화센터(1)
+&lt;/info&gt;
+&lt;location&gt;제주시일원&lt;/location&gt;
+&lt;sdate&gt;2014-11-15&lt;/sdate&gt;
+&lt;seq&gt;258&lt;/seq&gt;
+&lt;title&gt;제주시 청소년 통큰 페스티벌&lt;/title&gt;
 &lt;/list&gt;
 &lt;/data&gt;
 &lt;/body&gt;
-&lt;/rfcOpenApi&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이건 다른거쓰는게 조을거같음 ( 기상확인할 좌표값을 지정하기 어려움 )</t>
+&lt;/rfcOpenApi&gt;
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +521,13 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -309,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -326,6 +584,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
@@ -365,6 +627,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -413,7 +678,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +711,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,6 +763,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,93 +958,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="78.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="74.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="74.19921875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
+    <row r="8" spans="1:6" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
+    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +1113,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -774,7 +1126,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Info/정보가져오는 인터페이스 클래스 정보.xlsx
+++ b/Project Info/정보가져오는 인터페이스 클래스 정보.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>==&gt; ex) http://jstp.jejutour.go.kr/openapi/service/apiservice/JejuWifiVisitCountInfo.do  의 마지막 xxxx.do 부분을 따서 네이밍</t>
   </si>
@@ -485,6 +485,77 @@
 &lt;/body&gt;
 &lt;/rfcOpenApi&gt;
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주 도내의 모범음식점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resultCode 결과코드
+resultMsg 결과메세지
+pageIndex 쿼리 페이지 시작점
+pageSize 페이지 크기
+startPage 시작 페이지
+totalCount 전체 결과 수
+adres 주소
+adstrd 행정동
+bizcnd 업태
+bsnmNm 영업자명
+dataContent 상세정보
+dataSid 고유 SID
+dataTitle 업소명
+fileCnt 첨부파일존재여부
+la 위도
+lo 경도
+menu 메뉴
+regDate 작성일
+telNo 전화번호
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startPage 시작 페이지
+pageSize 페이지 사이즈
+dataTitle 업소명
+serviceKey 인증키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;rfcOpenApi&gt;
+&lt;header&gt;
+&lt;resultCode&gt;00&lt;/resultCode&gt;
+&lt;resultMsg&gt;success&lt;/resultMsg&gt;
+&lt;/header&gt;
+&lt;body&gt;
+&lt;pageIndex&gt;0&lt;/pageIndex&gt;
+&lt;pageSize&gt;10&lt;/pageSize&gt;
+&lt;startPage&gt;1&lt;/startPage&gt;
+&lt;totalCount&gt;1&lt;/totalCount&gt;
+&lt;data&gt;
+&lt;list&gt;
+&lt;adres&gt;삼도일동&lt;/adres&gt;
+&lt;adstrd&gt;행정동&lt;/adstrd&gt;
+&lt;bizcnd&gt;음식점&lt;/bizcnd&gt;
+&lt;bsnmNm&gt;홍길동&lt;/bsnmNm&gt;
+&lt;dataContent&gt;모범음식점&lt;/dataContent&gt;
+&lt;dataSid&gt;223&lt;/dataSid&gt;
+&lt;dataTitle&gt;삼도정순두부&lt;/dataTitle&gt;
+&lt;fileCnt&gt;1&lt;/fileCnt&gt;
+&lt;la&gt;31.111&lt;/la&gt;
+&lt;lo&gt;61.05022&lt;/lo&gt;
+&lt;menu&gt;순두부&lt;/menu&gt;
+&lt;regDate&gt;2014-07-04&lt;/regDate&gt;
+&lt;telNo&gt;064-755-4444&lt;/telNo&gt;
+&lt;/list&gt;
+&lt;/data&gt;
+&lt;/body&gt;
+&lt;/rfcOpenApi&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BestEating[http://data.jeju.go.kr/rest/besteating/getEatingList]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -956,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1098,6 +1169,23 @@
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Project Info/정보가져오는 인터페이스 클래스 정보.xlsx
+++ b/Project Info/정보가져오는 인터페이스 클래스 정보.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>==&gt; ex) http://jstp.jejutour.go.kr/openapi/service/apiservice/JejuWifiVisitCountInfo.do  의 마지막 xxxx.do 부분을 따서 네이밍</t>
   </si>
@@ -181,23 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">resultCode 결과코드
-resultMsg 결과메시지
-pageIndex 페이지 인덱스
-pageSize 페이지 사이즈
-startPage 시작 페이지
-totalCount 전체 게시물 수
-name 업체명
-category 분류
-ceo 대표자
-address 주소
-telephone 연락처
-introduce 소개
-img_url 대표이미지URL
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cultureEvent [http://data.seogwipo.go.kr/openapi/service/rest/cultureEvent]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,6 +229,141 @@
 Mtype 공개데이터 구분
 Padddate 데이터 등록일자
 pSn 행사 일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주 문화예술의 거리정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주 아트센터 공연정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artcenterShowInfoService[http://210.99.248.79/rest/ArtcenterShowInfoService/getArtcenterShowList]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resultCode 결과코드
+resultMsg 결과메시지
+pageIndex 페이지 인덱스
+pageSize 페이지 사이즈
+startPage 시작 페이지
+totalCount 전체 게시물 수
+p_SN 일련번호
+p_NM 공연명
+p_IMG 이미지
+p_YN 공연확정여부
+p_START_YMD 공연시작기간
+p_END_YMD 공연종료기간
+p_RNUTIME 관람시간
+p_VIEW_CD 관람등급
+p_PLAY_YN 공연여부
+p_INTRO 공연소개
+p_REG_DT 등록일자
+p_ORCHESTRA_YN 오케스트라여부
+p_ART_YN 대관여부
+p_FREE_YN 무료공연여부
+p_RESE_YN 인터넷예매여부
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;rfcOpenApi&gt;
+&lt;header&gt;
+&lt;resultCode&gt;00&lt;/resultCode&gt;
+&lt;resultMsg&gt;success&lt;/resultMsg&gt;
+&lt;/header&gt;
+&lt;body&gt;
+&lt;pageIndex&gt;0&lt;/pageIndex&gt;
+&lt;pageSize&gt;10&lt;/pageSize&gt;
+&lt;startPage&gt;1&lt;/startPage&gt;
+&lt;totalCount&gt;760&lt;/totalCount&gt;
+&lt;data&gt;
+&lt;list&gt;
+&lt;p_ART_YN&gt;0&lt;/p_ART_YN&gt;
+&lt;p_END_YMD&gt;20160630&lt;/p_END_YMD&gt;
+&lt;p_FREE_YN&gt;0&lt;/p_FREE_YN&gt;
+&lt;p_IMG&gt;151123_025337_0&lt;/p_IMG&gt;
+&lt;p_INTRO&gt;&lt;/p_INTRO&gt;
+&lt;p_NM&gt;제3회 제주평화 음악회&lt;/p_NM&gt;
+&lt;p_ORCHESTRA_YN&gt;0&lt;/p_ORCHESTRA_YN&gt;
+&lt;p_PLAY_YN&gt;0&lt;/p_PLAY_YN&gt;
+&lt;p_REG_DT&gt;2015-12-01 15:30:04.0&lt;/p_REG_DT&gt;
+&lt;p_RESE_YN&gt;0&lt;/p_RESE_YN&gt;
+&lt;p_RNUTIME&gt;60&lt;/p_RNUTIME&gt;
+&lt;p_SN&gt;201278&lt;/p_SN&gt;
+&lt;p_START_YMD&gt;20160629&lt;/p_START_YMD&gt;
+&lt;p_VIEW_CD&gt;&lt;/p_VIEW_CD&gt;
+&lt;p_YN&gt;0&lt;/p_YN&gt;
+&lt;/list&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 축제/행사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FestivalInquiryService [http://210.99.248.79/rest/FestivalInquiryService/getFestivalList]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resultCode 결과코드
+resultMsg 결과메시지
+pageIndex 페이지 인덱스
+pageSize 페이지 사이즈
+startPage 시작 페이지
+totalCount 전체 게시물 수
+edate 축제/행사 종료일
+host 축제/행사 주최
+host1 축제/행사 주관
+info 축제/행사 내용
+location 축제/행사 장소
+sdate 축제/행사 시작일
+seq 고유번호
+title 축제/행사 명칭
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;rfcOpenApi&gt;
+&lt;header&gt;
+&lt;resultCode&gt;00&lt;/resultCode&gt;
+&lt;resultMsg&gt;success&lt;/resultMsg&gt;
+&lt;/header&gt;
+&lt;body&gt;
+&lt;pageIndex&gt;0&lt;/pageIndex&gt;
+&lt;pageSize&gt;10&lt;/pageSize&gt;
+&lt;startPage&gt;1&lt;/startPage&gt;
+&lt;totalCount&gt;196&lt;/totalCount&gt;
+&lt;data&gt;
+&lt;list&gt;
+&lt;edate&gt;2014-11-15&lt;/edate&gt;
+&lt;host&gt;제주시 청소년시설협회&lt;/host&gt;
+&lt;host1&gt;제주시&lt;/host1&gt;
+&lt;info&gt;
+우리시에서는 아동, 청소년, 가족 등 지역의 청소년과 시민들이 한자리에 모여, 함께 참여하고 화합할 수 있는 자리를 마련하기 위하여 다음과 같이『제4회 제주시 청소년, 통(通)큰 Festival!』개최하고자 하오니 시민 여러분의 많은 참여 부탁드립니다.
+ 가. 행 사 명 : 제4회 제주시 청소년, 통(通)큰 Festival!
+ 나. 일 시 : 2014. 11. 15(토) 13:00~17:00
+ 다. 장 소 : 제주해변공연장(탑동)
+ 라. 대 상 : 지역사회 청소년 등 1,500여명
+ 마. 주 최 : 제주시(여성가족과)
+ 바. 주 관 : 제주시 청소년시설협회
+ 사. 참여시설 
+ - 공공청소년수련시설(10), 청소년방과후아카데미(4), 청소년성문화센터(1)
+&lt;/info&gt;
+&lt;location&gt;제주시일원&lt;/location&gt;
+&lt;sdate&gt;2014-11-15&lt;/sdate&gt;
+&lt;seq&gt;258&lt;/seq&gt;
+&lt;title&gt;제주시 청소년 통큰 페스티벌&lt;/title&gt;
+&lt;/list&gt;
+&lt;/data&gt;
+&lt;/body&gt;
+&lt;/rfcOpenApi&gt;
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -353,145 +471,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제주 문화예술의 거리정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주 아트센터 공연정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>artcenterShowInfoService[http://210.99.248.79/rest/ArtcenterShowInfoService/getArtcenterShowList]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">resultCode 결과코드
 resultMsg 결과메시지
 pageIndex 페이지 인덱스
 pageSize 페이지 사이즈
 startPage 시작 페이지
 totalCount 전체 게시물 수
-p_SN 일련번호
-p_NM 공연명
-p_IMG 이미지
-p_YN 공연확정여부
-p_START_YMD 공연시작기간
-p_END_YMD 공연종료기간
-p_RNUTIME 관람시간
-p_VIEW_CD 관람등급
-p_PLAY_YN 공연여부
-p_INTRO 공연소개
-p_REG_DT 등록일자
-p_ORCHESTRA_YN 오케스트라여부
-p_ART_YN 대관여부
-p_FREE_YN 무료공연여부
-p_RESE_YN 인터넷예매여부
+name 업체명
+category 분류
+ceo 대표자
+address 주소
+telephone 연락처
+introduce 소개
+img_url 대표이미지URL
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-&lt;rfcOpenApi&gt;
-&lt;header&gt;
-&lt;resultCode&gt;00&lt;/resultCode&gt;
-&lt;resultMsg&gt;success&lt;/resultMsg&gt;
-&lt;/header&gt;
-&lt;body&gt;
-&lt;pageIndex&gt;0&lt;/pageIndex&gt;
-&lt;pageSize&gt;10&lt;/pageSize&gt;
-&lt;startPage&gt;1&lt;/startPage&gt;
-&lt;totalCount&gt;760&lt;/totalCount&gt;
-&lt;data&gt;
-&lt;list&gt;
-&lt;p_ART_YN&gt;0&lt;/p_ART_YN&gt;
-&lt;p_END_YMD&gt;20160630&lt;/p_END_YMD&gt;
-&lt;p_FREE_YN&gt;0&lt;/p_FREE_YN&gt;
-&lt;p_IMG&gt;151123_025337_0&lt;/p_IMG&gt;
-&lt;p_INTRO&gt;&lt;/p_INTRO&gt;
-&lt;p_NM&gt;제3회 제주평화 음악회&lt;/p_NM&gt;
-&lt;p_ORCHESTRA_YN&gt;0&lt;/p_ORCHESTRA_YN&gt;
-&lt;p_PLAY_YN&gt;0&lt;/p_PLAY_YN&gt;
-&lt;p_REG_DT&gt;2015-12-01 15:30:04.0&lt;/p_REG_DT&gt;
-&lt;p_RESE_YN&gt;0&lt;/p_RESE_YN&gt;
-&lt;p_RNUTIME&gt;60&lt;/p_RNUTIME&gt;
-&lt;p_SN&gt;201278&lt;/p_SN&gt;
-&lt;p_START_YMD&gt;20160629&lt;/p_START_YMD&gt;
-&lt;p_VIEW_CD&gt;&lt;/p_VIEW_CD&gt;
-&lt;p_YN&gt;0&lt;/p_YN&gt;
-&lt;/list&gt;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주시 축제/행사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FestivalInquiryService [http://210.99.248.79/rest/FestivalInquiryService/getFestivalList]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">resultCode 결과코드
-resultMsg 결과메시지
-pageIndex 페이지 인덱스
+    <t>startPage 시작 페이지
 pageSize 페이지 사이즈
-startPage 시작 페이지
-totalCount 전체 게시물 수
-edate 축제/행사 종료일
-host 축제/행사 주최
-host1 축제/행사 주관
-info 축제/행사 내용
-location 축제/행사 장소
-sdate 축제/행사 시작일
-seq 고유번호
-title 축제/행사 명칭
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;rfcOpenApi&gt;
-&lt;header&gt;
-&lt;resultCode&gt;00&lt;/resultCode&gt;
-&lt;resultMsg&gt;success&lt;/resultMsg&gt;
-&lt;/header&gt;
-&lt;body&gt;
-&lt;pageIndex&gt;0&lt;/pageIndex&gt;
-&lt;pageSize&gt;10&lt;/pageSize&gt;
-&lt;startPage&gt;1&lt;/startPage&gt;
-&lt;totalCount&gt;196&lt;/totalCount&gt;
-&lt;data&gt;
-&lt;list&gt;
-&lt;edate&gt;2014-11-15&lt;/edate&gt;
-&lt;host&gt;제주시 청소년시설협회&lt;/host&gt;
-&lt;host1&gt;제주시&lt;/host1&gt;
-&lt;info&gt;
-우리시에서는 아동, 청소년, 가족 등 지역의 청소년과 시민들이 한자리에 모여, 함께 참여하고 화합할 수 있는 자리를 마련하기 위하여 다음과 같이『제4회 제주시 청소년, 통(通)큰 Festival!』개최하고자 하오니 시민 여러분의 많은 참여 부탁드립니다.
- 가. 행 사 명 : 제4회 제주시 청소년, 통(通)큰 Festival!
- 나. 일 시 : 2014. 11. 15(토) 13:00~17:00
- 다. 장 소 : 제주해변공연장(탑동)
- 라. 대 상 : 지역사회 청소년 등 1,500여명
- 마. 주 최 : 제주시(여성가족과)
- 바. 주 관 : 제주시 청소년시설협회
- 사. 참여시설 
- - 공공청소년수련시설(10), 청소년방과후아카데미(4), 청소년성문화센터(1)
-&lt;/info&gt;
-&lt;location&gt;제주시일원&lt;/location&gt;
-&lt;sdate&gt;2014-11-15&lt;/sdate&gt;
-&lt;seq&gt;258&lt;/seq&gt;
-&lt;title&gt;제주시 청소년 통큰 페스티벌&lt;/title&gt;
-&lt;/list&gt;
-&lt;/data&gt;
-&lt;/body&gt;
-&lt;/rfcOpenApi&gt;
-</t>
+authApiKey 요청키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -678,7 +684,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,26 +717,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -763,23 +752,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -958,27 +930,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="78.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="74.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="74.25" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -989,82 +961,82 @@
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>2</v>
@@ -1075,7 +1047,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="408.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1126,7 +1098,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Info/정보가져오는 인터페이스 클래스 정보.xlsx
+++ b/Project Info/정보가져오는 인터페이스 클래스 정보.xlsx
@@ -185,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서귀포시 문화예술행사정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RESPONSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,24 +303,6 @@
   </si>
   <si>
     <t>FestivalInquiryService [http://210.99.248.79/rest/FestivalInquiryService/getFestivalList]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">resultCode 결과코드
-resultMsg 결과메시지
-pageIndex 페이지 인덱스
-pageSize 페이지 사이즈
-startPage 시작 페이지
-totalCount 전체 게시물 수
-edate 축제/행사 종료일
-host 축제/행사 주최
-host1 축제/행사 주관
-info 축제/행사 내용
-location 축제/행사 장소
-sdate 축제/행사 시작일
-seq 고유번호
-title 축제/행사 명칭
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -491,6 +469,27 @@
     <t>startPage 시작 페이지
 pageSize 페이지 사이즈
 authApiKey 요청키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 문화예술행사정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//resultCode 결과코드
+//resultMsg 결과메시지
+//pageIndex 페이지 인덱스
+//pageSize 페이지 사이즈
+//startPage 시작 페이지
+//totalCount 전체 게시물 수
+//host1 축제/행사 주관
+//seq 고유번호
+//host 축제/행사 주최
+ title 축제/행사 명칭 
+sdate 축제/행사 시작일
+edate 축제/행사 종료일
+location 축제/행사 장소
+info 축제/행사 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -961,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -972,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
@@ -989,51 +988,51 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
